--- a/Tables/Event.xlsx
+++ b/Tables/Event.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8481B5-DA7A-457F-9678-D083675174C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF6C5FC-92FE-49A0-B3C0-711C10AC7BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{576920BB-05BB-4121-9EE2-9342374096A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{576920BB-05BB-4121-9EE2-9342374096A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Event!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Event!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>string</t>
   </si>
@@ -158,9 +158,6 @@
     <t>http://rs.tdwg.org/dwc/terms/eventTime</t>
   </si>
   <si>
-    <t>eventTime</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -206,18 +203,6 @@
     <t>eventID</t>
   </si>
   <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#locationID</t>
-  </si>
-  <si>
-    <t>An identifier for the set of location information (data associated with dcterms:Location). May be a global unique identifier or an identifier specific to the data set.</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/locationID</t>
-  </si>
-  <si>
-    <t>locationID</t>
-  </si>
-  <si>
     <t>REQUIRED</t>
   </si>
   <si>
@@ -237,6 +222,21 @@
   </si>
   <si>
     <t>TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order </t>
+  </si>
+  <si>
+    <t>VerbatimEventTime</t>
+  </si>
+  <si>
+    <t>verbatimEventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique number that identifies one sample of a particular site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In habitat datasets this is often referred to as the ReachID. This ID identifying a unique visit to a location, while the SiteID corresponds to the LocationID. We use eventID to corresponds to Darwin Core standard. </t>
   </si>
 </sst>
 </file>
@@ -591,316 +591,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FCFDD0-7E43-4DDD-9BAC-20DD7DCD7999}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="83.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="83.453125" customWidth="1"/>
+    <col min="5" max="5" width="89.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>55</v>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
         <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
         <v>46</v>
       </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E10" s="1">
         <v>2008</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13" xr:uid="{72641547-B2D2-4DF6-A36E-F4F283136623}"/>
+  <autoFilter ref="A1:H1" xr:uid="{A348AD02-DCE4-4F4D-A591-8C1BD7923E3C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>